--- a/data/novelomics/rd3_novelomics.xlsx
+++ b/data/novelomics/rd3_novelomics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcruvolo/GitHub/molgenis-solve-rd/data/novelomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD4B16D-F9D6-0F43-AECE-1CD8A96ACFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E8A56A-9711-4540-9929-B11448B77986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="1" r:id="rId1"/>
@@ -1131,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+    <sheetView zoomScale="173" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="143" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1342,7 +1342,7 @@
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>69</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>89</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>92</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>94</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>98</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>101</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>103</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>105</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>108</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>57</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>89</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>118</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>120</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>123</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>127</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>130</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>133</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>136</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>140</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>143</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>108</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>147</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>150</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>57</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>40</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>40</v>
@@ -3594,7 +3594,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>155</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>158</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>161</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>164</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>167</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>170</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>174</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>177</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>179</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>181</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>140</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>143</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>186</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>108</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>191</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>194</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>197</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>200</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>52</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>204</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>57</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>207</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>89</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>155</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>212</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>216</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>218</v>
       </c>
@@ -4913,7 +4913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>220</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>222</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>224</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>226</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>52</v>
       </c>
@@ -5130,7 +5130,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>57</v>
       </c>

--- a/data/novelomics/rd3_novelomics.xlsx
+++ b/data/novelomics/rd3_novelomics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcruvolo/GitHub/molgenis-solve-rd/data/novelomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E8A56A-9711-4540-9929-B11448B77986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D313F40-E87E-9D41-B1DC-55AE148126B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1310,8 +1310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4766,7 +4767,7 @@
         <v>11</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>11</v>

--- a/data/novelomics/rd3_novelomics.xlsx
+++ b/data/novelomics/rd3_novelomics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dcruvolo/GitHub/molgenis-solve-rd/data/novelomics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D313F40-E87E-9D41-B1DC-55AE148126B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B305097F-2D3C-494D-9E78-AD5D524AC1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-5140" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1311,8 +1311,8 @@
   <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1666,7 +1666,7 @@
         <v>240</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>56</v>
